--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 복귀 미완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 복귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E1"/>
+  <dimension ref="C1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -389,6 +401,25 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,16 +38,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에러 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원점 복귀 미완료</t>
+    <t>E01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 중 실행 불가능 명령을 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 중에 구동 명령을 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRT 명령 후 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터범위에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 설정 범위 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포맷에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT DATA 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT DATA 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 명령어가 존재 하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점복귀 미완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원점 복귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진공 센서 미감지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진공 센서 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비상 정지가 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비상S/W해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오버 런 상태 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트 리미트 및 동작 범위 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">얼라인(align) 재시도 횟수 초과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이퍼가 작업 위치로부터 벗어남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨어퍼의 놓여진 위치 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">218 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CCD 데이터 이상 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LED 동작 확인 
+CCD 데이터 확인 
+CCD 및 LED 클리닝 작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이퍼 타입 설정 확인 
+웨이퍼 타입 확인 
+CCD 데이터 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">웨이퍼 없음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이퍼 확인 
+웨이퍼 유무 센서 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이퍼 타입 설정 이상</t>
+  </si>
+  <si>
+    <t>WFT 명령 확인</t>
+  </si>
+  <si>
+    <t>웨이퍼 크기 설정 이상</t>
+  </si>
+  <si>
+    <t>노치 검출 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WFS 명령 확인</t>
+  </si>
+  <si>
+    <t>얼라인 범위 에러</t>
+  </si>
+  <si>
+    <t>투입된 웨이퍼 위치 확인</t>
+  </si>
+  <si>
+    <t>노치 형상 부적합</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCD 데이터 확인 
+LED 밝기 조절(가변저항) 
+형상 부적합 기준치 조절 
+(변수98번, 기본=80) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN 동작 불량</t>
+  </si>
+  <si>
+    <t>FAN 동작 상태 확인</t>
   </si>
 </sst>
 </file>
@@ -93,9 +292,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,47 +585,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E3"/>
+  <dimension ref="C1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="25.3984375" customWidth="1"/>
-    <col min="4" max="4" width="49.8984375" customWidth="1"/>
-    <col min="5" max="5" width="68.69921875" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="68.69921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>216</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>231</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>250</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>252</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>253</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>에러없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -247,6 +243,59 @@
   </si>
   <si>
     <t>FAN 동작 상태 확인</t>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E99</t>
+  </si>
+  <si>
+    <t>통신 이상</t>
+  </si>
+  <si>
+    <t>통신 케이블 확인</t>
+  </si>
+  <si>
+    <t>얼라인 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 웨이퍼 크기 설정
+[ WFS 6&lt;CR&gt;&lt;LF&gt; ] (6”(100mm) 웨이퍼로 설정)
+[ WFS 200&lt;CR&gt;&lt;LF&gt; ] (200mm(8”) 웨이퍼로 설정)
+2)  웨이퍼 타입 설정
+[ WFT 1&lt;CR&gt;&lt;LF&gt; ] (노치타입 웨이퍼로 설정)
+[ WFT 2&lt;CR&gt;&lt;LF&gt; ] (플랫타입 웨이퍼로 설정)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼라인 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 얼라이너에 24V 전원 인가.
+2)  [ORG] 명령 전송
+주의 : 전원 인가 후 ORG 명령은 반드시 실행되어야 합니다.
+      ORG명령은 웨이퍼가 올려져 있지 않은 상태에서 실행되어야 합니다.
+3)  [DWL] 명령으로 변수 설정
+형식 : DWL #,XXX,YYY,RRR
+      # : 변수 번호 (1~10)
+      XXX : 얼라이닝 과정 후의 센터링 위치의 X축 OFFSET 값 (단위 : mm)
+   YYY : 얼라이닝 과정 후의 센터링 위치의 Y축 OFFSET 값 (단위 : mm)
+      RRR : 얼라이닝 과정 후 회전축의 회전 양 (단위 : 0.1°)
+4)  WTR이 웨이퍼를 PUT
+주의 : 얼라이너에는 센터링 위치 결정 기능이 있지만, CCD센서가 최적의 성능을 발휘하기 위해, 웨이퍼의 중심과     
+얼라이너 회전축의 오차는 5mm이내가 되어야 합니다. 
+웨이퍼의 중심이 회전축과 5mm이상 멀어지게 되면 CCD센서가 정확한 값을 읽지 못할 수도 있으므로 WTR이
+최대한 얼라이너의 중심에 웨이퍼를 올려놓도록 티칭해 주시기 바랍니다.      
+5)  [ALG] 명령(얼라이닝 작업만 수행) 또는 [ALS #] 명령(얼라이닝 작업 후 ‘#’번호의 변수에 저장된 위치만큼 이동&amp;회전)
+6)  WTR이 웨이퍼를 GET.
+7)  [RST] 명령을 송신해서 작업 대기 상태로 복귀. 4번 스텝부터 계속 작업 진행.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,9 +634,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E22"/>
+  <dimension ref="C1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -671,161 +720,188 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C15" s="1">
+        <v>216</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C14">
-        <v>216</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="18" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C19" s="1">
+        <v>231</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C20" s="1">
+        <v>232</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18">
-        <v>231</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C19">
-        <v>232</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C21" s="1">
+        <v>250</v>
+      </c>
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C20">
-        <v>250</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="22" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="C22" s="1">
+        <v>252</v>
+      </c>
+      <c r="D22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="C21">
-        <v>252</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="3" t="s">
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C23" s="1">
+        <v>253</v>
+      </c>
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C22">
-        <v>253</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E23" t="s">
         <v>54</v>
       </c>
-      <c r="E22" t="s">
-        <v>55</v>
+    </row>
+    <row r="24" spans="3:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -258,10 +258,6 @@
     <t>통신 케이블 확인</t>
   </si>
   <si>
-    <t>얼라인 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1) 웨이퍼 크기 설정
 [ WFS 6&lt;CR&gt;&lt;LF&gt; ] (6”(100mm) 웨이퍼로 설정)
 [ WFS 200&lt;CR&gt;&lt;LF&gt; ] (200mm(8”) 웨이퍼로 설정)
@@ -269,10 +265,6 @@
 [ WFT 1&lt;CR&gt;&lt;LF&gt; ] (노치타입 웨이퍼로 설정)
 [ WFT 2&lt;CR&gt;&lt;LF&gt; ] (플랫타입 웨이퍼로 설정)
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼라인 실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,6 +287,16 @@
 6)  WTR이 웨이퍼를 GET.
 7)  [RST] 명령을 송신해서 작업 대기 상태로 복귀. 4번 스텝부터 계속 작업 진행.
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼라인 실행
+얼라인실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼라인 설정
+얼라인설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -889,19 +891,19 @@
       </c>
     </row>
     <row r="24" spans="3:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="25" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -290,13 +290,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>얼라인 실행
-얼라인실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼라인 설정
-얼라인설정</t>
+    <t>얼라인 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼라인 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +637,7 @@
   <dimension ref="C1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -290,11 +290,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>얼라인 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼라인 설정</t>
+    <t>웨이퍼 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="C1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="24" spans="3:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>59</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="25" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>60</v>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -290,11 +290,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>웨이퍼 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이퍼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="C1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="24" spans="3:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>59</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="25" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>60</v>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -636,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -294,7 +294,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>웨이퍼</t>
+    <t>설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,26 @@
   </si>
   <si>
     <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트러블슈팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트러블슈팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트러블슈팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aligner_Trouble_Shooting_Guide.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E25"/>
+  <dimension ref="C1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -645,9 +665,10 @@
     <col min="3" max="3" width="25.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="68.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,8 +678,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,7 +690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -677,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -688,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -696,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
@@ -707,7 +731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
@@ -718,7 +742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
@@ -729,7 +753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
@@ -737,7 +761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
@@ -748,7 +772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
@@ -759,7 +783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
@@ -770,7 +794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
@@ -781,7 +805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
@@ -789,7 +813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <v>216</v>
       </c>
@@ -800,7 +824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
@@ -811,7 +835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
@@ -822,7 +846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
@@ -833,7 +857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <v>231</v>
       </c>
@@ -844,7 +868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <v>232</v>
       </c>
@@ -855,7 +879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <v>250</v>
       </c>
@@ -866,7 +890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <v>252</v>
       </c>
@@ -877,7 +901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <v>253</v>
       </c>
@@ -888,7 +912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
@@ -896,12 +920,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:6" ht="409.6" x14ac:dyDescent="0.4">
       <c r="C25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/aligner_Error_Code.xlsx
+++ b/aligner_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,95 +110,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원점복귀 미완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원점 복귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진공 센서 미감지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진공 센서 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비상 정지가 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비상S/W해제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">오버 런 상태 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소프트 리미트 및 동작 범위 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>215</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">얼라인(align) 재시도 횟수 초과 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이퍼가 작업 위치로부터 벗어남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨어퍼의 놓여진 위치 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">218 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CCD 데이터 이상 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LED 동작 확인 
-CCD 데이터 확인 
-CCD 및 LED 클리닝 작업 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>221</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>웨이퍼 타입 설정 확인 
-웨이퍼 타입 확인 
-CCD 데이터 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">웨이퍼 없음 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,33 +152,13 @@
     <t>웨이퍼 크기 설정 이상</t>
   </si>
   <si>
-    <t>노치 검출 에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WFS 명령 확인</t>
   </si>
   <si>
     <t>얼라인 범위 에러</t>
   </si>
   <si>
-    <t>투입된 웨이퍼 위치 확인</t>
-  </si>
-  <si>
-    <t>노치 형상 부적합</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCD 데이터 확인 
-LED 밝기 조절(가변저항) 
-형상 부적합 기준치 조절 
-(변수98번, 기본=80) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAN 동작 불량</t>
-  </si>
-  <si>
-    <t>FAN 동작 상태 확인</t>
   </si>
   <si>
     <t>002</t>
@@ -316,6 +232,208 @@
   <si>
     <t>Aligner_Trouble_Shooting_Guide.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_ORIGIN_ERROR
+원점복귀 미완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점복귀동작(ORG) 실시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_TIME_ERROR
+공급 진공 압력 불량
+진공 센서 불량
+진공 Sol Valve 불량
+얼라이너 보드 불량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급 진공 압력 확인
+진공 센서 교체
+진공 Sol valve 교체
+얼라이너 보드 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_EMERGENCY
+비상 정지가 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부EMERGENCY 입력확인(DI1-0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_OVER_RUN
+오버 런 상태 
+LIMIT센서감지
+티칭값 불량
+얼라인 동작 불량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT 센서동작확인
+티칭값확인및변경
+CCD 데이터확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_RETRY_OVER
+얼라인(align) 재시도 횟수 초과 
+샘플링데이터가CCD 영역을벗어남
+LED 동작불량
+LED 밝기불량
+CCD 샘플링데이터이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD 데이터확인
+투입된웨이퍼위치확인
+얼라이너에투입하는로봇티칭위치확
+인
+LED 동작확인및LED 교체
+CCD데이터확인(AlignerCCDCheck)
+가변저항조정
+THRESHOLD 값조정(변수12번)
+웨이퍼상태확인(엣지상태)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_SAMPLING_ERROR
+웨이퍼가 작업 위치로부터 벗어남
+LED 동작불량
+LED 밝기불량
+CCD 샘플링데이터이상
+얼라이너보드불량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입된웨이퍼위치확인
+얼라이너에투입하는로봇티칭위치확인
+LED 동작확인및LED 교체
+CCD데이터확인(AlignerCCDCheck)
+가변저항조정
+THRESHOLD 값조정(변수12번)
+웨이퍼상태확인(엣지상태)
+얼라이너보드교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_BAD_DATA
+LED 동작불량
+LED 밝기불량
+CCD데이터이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 동작확인및LED 교체
+CCD데이터확인(AlignerCCDCheck)
+가변저항조정
+THRESHOLD 값조정(변수12번)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_NOTCH_DARA_ERROR
+검색에러
+동작불량
+밝기불량
+얼라이너보드불량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이퍼노치상태확인
+필터적용설정(변수16번을1로설정)
+LED 동작확인및LED 교체
+CCD데이터확인(AlignerCCDCheck)
+가변저항조정
+THRESHOLD 값조정(변수12번)
+얼라이너보드교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ERR_NO_WAFER
+웨이퍼 없음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입된웨이퍼위치확인
+(얼라인범위: 5mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노치 형상 부적합
+LED 동작불량
+LED 밝기불량
+얼라이너보드불량
+기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이퍼노치형상확인
+•필터 관련 R2 THRESHOLD값 하향 조정
+(VAR98=50) [기본값:80]
+LED 동작확인및LED 교체
+• CCD데이터확인(AlignerCCDCheck)
+• 가변저항조정
+• THRESHOLD 값조정(변수12번)
+얼라이너보드교체
+필터적용설정(변수16번을1로설정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>• FAN 동작상태확인
+• FAN 교체
+참고: 변수100번을1로설정할경우
+FANMONITORING 기능무시가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_DOUBLE_NOTCH_ERROR
+NOTCH가2개이상검출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>•웨이퍼상태확인
+•CCD 데이터확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼라이너후면커버를OPEN
+• 파란색가변저항확인
+• 수축튜브를밑으로내리고테스트기로두선을측정하며
+가변저항을조절
+• 반시계방향: 저항값감소(밝아짐)
+• 시계방향: 저장값증가(어두워짐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 밝기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_밝기.png</t>
+  </si>
+  <si>
+    <t>CCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD 데이터 측정 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD 데이터 확인 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD_CHECK.png</t>
   </si>
 </sst>
 </file>
@@ -654,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F26"/>
+  <dimension ref="C1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -679,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.4">
@@ -744,13 +862,13 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.4">
@@ -761,100 +879,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="14" spans="3:6" ht="174" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="174" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <v>216</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="87" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
@@ -862,10 +983,10 @@
         <v>231</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.4">
@@ -873,73 +994,109 @@
         <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="191.4" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <v>252</v>
       </c>
-      <c r="D22" t="s">
-        <v>51</v>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <v>253</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="C25" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
